--- a/dashboard/data/we2_alt_publ3.xlsx
+++ b/dashboard/data/we2_alt_publ3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iarkaeva\Documents\R\BIH_QUEST_Projects\geoscience-dashboard-ana-copy\dashboard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaatn\Documents\R\BIH Projects\geoscience-dashboard-ana-copy\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532847B5-1304-4754-84B0-078A1FF4D016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="20" windowWidth="20960" windowHeight="9720" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="259">
   <si>
     <t>complete_ds_ubib</t>
   </si>
@@ -111,9 +112,6 @@
   </si>
   <si>
     <t>10.1144/sp432.6</t>
-  </si>
-  <si>
-    <t>journal-article</t>
   </si>
   <si>
     <t>closed</t>
@@ -811,7 +809,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="12"/>
@@ -997,7 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1011,11 +1009,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1029,12 +1027,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1321,17 +1318,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="1" max="1" width="33.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.19921875" customWidth="1"/>
     <col min="3" max="3" width="11" style="2"/>
     <col min="4" max="4" width="11" style="1"/>
     <col min="5" max="9" width="0" hidden="1" customWidth="1"/>
@@ -1460,49 +1457,49 @@
         <v>0</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="U2" s="9">
         <v>2015</v>
       </c>
       <c r="V2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="AB2" s="9">
         <v>2017</v>
@@ -1513,17 +1510,17 @@
     </row>
     <row r="3" spans="1:31" s="7" customFormat="1">
       <c r="A3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>19</v>
@@ -1544,10 +1541,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="N3" s="9" t="b">
         <v>1</v>
@@ -1559,34 +1556,34 @@
         <v>0</v>
       </c>
       <c r="Q3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="U3" s="9">
         <v>2016</v>
       </c>
       <c r="V3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="AB3" s="9">
         <v>2016</v>
@@ -1597,26 +1594,26 @@
     </row>
     <row r="4" spans="1:31" s="7" customFormat="1">
       <c r="A4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="G4" s="9" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="9" t="e">
         <v>#N/A</v>
@@ -1628,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4" s="9" t="b">
         <v>1</v>
@@ -1643,34 +1640,34 @@
         <v>0</v>
       </c>
       <c r="Q4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="U4" s="9">
         <v>2016</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="Z4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB4" s="9">
         <v>2016</v>
@@ -1681,10 +1678,10 @@
     </row>
     <row r="5" spans="1:31" s="7" customFormat="1">
       <c r="A5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="8" t="e">
@@ -1712,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="9" t="b">
         <v>0</v>
@@ -1733,28 +1730,28 @@
         <v>#N/A</v>
       </c>
       <c r="S5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="U5" s="9">
         <v>2016</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="Z5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB5" s="9">
         <v>2017</v>
@@ -1765,10 +1762,10 @@
     </row>
     <row r="6" spans="1:31" s="7" customFormat="1">
       <c r="A6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="8" t="e">
@@ -1796,10 +1793,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" s="9" t="b">
         <v>0</v>
@@ -1817,28 +1814,28 @@
         <v>#N/A</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U6" s="9">
         <v>2016</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="Y6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="Z6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB6" s="9">
         <v>2017</v>
@@ -1849,10 +1846,10 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="12" t="e">
@@ -1880,10 +1877,10 @@
         <v>#N/A</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N7" s="15" t="e">
         <v>#N/A</v>
@@ -1913,31 +1910,31 @@
         <v>#N/A</v>
       </c>
       <c r="W7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="15" t="s">
+      <c r="Y7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y7" s="15" t="s">
+      <c r="Z7" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="Z7" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="AB7" s="15">
         <v>2016</v>
       </c>
       <c r="AC7" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE7" s="15"/>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="12" t="e">
@@ -1965,10 +1962,10 @@
         <v>#N/A</v>
       </c>
       <c r="L8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="N8" s="15" t="e">
         <v>#N/A</v>
@@ -1998,31 +1995,31 @@
         <v>#N/A</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y8" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z8" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB8" s="15">
         <v>2016</v>
       </c>
       <c r="AC8" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE8" s="15"/>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="12" t="e">
@@ -2050,10 +2047,10 @@
         <v>#N/A</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" s="15" t="e">
         <v>#N/A</v>
@@ -2083,31 +2080,31 @@
         <v>#N/A</v>
       </c>
       <c r="W9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="15" t="s">
+      <c r="Y9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z9" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB9" s="15">
         <v>2016</v>
       </c>
       <c r="AC9" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE9" s="15"/>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="12" t="e">
@@ -2135,10 +2132,10 @@
         <v>#N/A</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="15" t="e">
         <v>#N/A</v>
@@ -2168,16 +2165,16 @@
         <v>#N/A</v>
       </c>
       <c r="W10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X10" s="15" t="s">
+      <c r="Y10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z10" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB10" s="15">
         <v>2016</v>
@@ -2187,14 +2184,14 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="D11" s="12" t="e">
         <v>#N/A</v>
       </c>
@@ -2220,10 +2217,10 @@
         <v>#N/A</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" s="15" t="e">
         <v>#N/A</v>
@@ -2253,16 +2250,16 @@
         <v>#N/A</v>
       </c>
       <c r="W11" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y11" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z11" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB11" s="15">
         <v>2016</v>
@@ -2272,13 +2269,13 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="B12" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="D12" s="12" t="e">
         <v>#N/A</v>
@@ -2305,10 +2302,10 @@
         <v>#N/A</v>
       </c>
       <c r="L12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="N12" s="15" t="e">
         <v>#N/A</v>
@@ -2338,16 +2335,16 @@
         <v>#N/A</v>
       </c>
       <c r="W12" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y12" s="15" t="s">
+      <c r="Z12" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="Z12" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="AB12" s="15">
         <v>2016</v>
@@ -2357,7 +2354,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="15" t="e">
         <v>#N/A</v>
@@ -2388,10 +2385,10 @@
         <v>#N/A</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N13" s="15" t="e">
         <v>#N/A</v>
@@ -2421,16 +2418,16 @@
         <v>#N/A</v>
       </c>
       <c r="W13" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z13" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB13" s="15">
         <v>2016</v>
@@ -2440,13 +2437,13 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="B14" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="D14" s="12" t="e">
         <v>#N/A</v>
@@ -2473,10 +2470,10 @@
         <v>#N/A</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N14" s="15" t="e">
         <v>#N/A</v>
@@ -2506,16 +2503,16 @@
         <v>#N/A</v>
       </c>
       <c r="W14" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y14" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z14" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB14" s="15">
         <v>2016</v>
@@ -2525,14 +2522,14 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>91</v>
-      </c>
       <c r="D15" s="12" t="e">
         <v>#N/A</v>
       </c>
@@ -2558,10 +2555,10 @@
         <v>#N/A</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N15" s="15" t="e">
         <v>#N/A</v>
@@ -2591,16 +2588,16 @@
         <v>#N/A</v>
       </c>
       <c r="W15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X15" s="15" t="s">
+      <c r="Y15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y15" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z15" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB15" s="15">
         <v>2016</v>
@@ -2610,13 +2607,13 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="B16" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="D16" s="12" t="e">
         <v>#N/A</v>
@@ -2643,10 +2640,10 @@
         <v>#N/A</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N16" s="15" t="e">
         <v>#N/A</v>
@@ -2676,34 +2673,34 @@
         <v>#N/A</v>
       </c>
       <c r="W16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X16" s="15" t="s">
+      <c r="Y16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y16" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z16" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB16" s="15">
         <v>2016</v>
       </c>
       <c r="AC16" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE16" s="15"/>
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="15" t="e">
         <v>#N/A</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="12" t="e">
         <v>#N/A</v>
@@ -2730,10 +2727,10 @@
         <v>#N/A</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N17" s="15" t="e">
         <v>#N/A</v>
@@ -2763,31 +2760,31 @@
         <v>#N/A</v>
       </c>
       <c r="W17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X17" s="15" t="s">
+      <c r="Y17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y17" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z17" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB17" s="15">
         <v>2016</v>
       </c>
       <c r="AC17" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE17" s="15"/>
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="12" t="e">
@@ -2815,10 +2812,10 @@
         <v>#N/A</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N18" s="15" t="e">
         <v>#N/A</v>
@@ -2848,16 +2845,16 @@
         <v>#N/A</v>
       </c>
       <c r="W18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X18" s="15" t="s">
+      <c r="Y18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y18" s="15" t="s">
+      <c r="Z18" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="Z18" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="AB18" s="15">
         <v>2016</v>
@@ -2867,17 +2864,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
-    <hyperlink ref="C11" r:id="rId5"/>
-    <hyperlink ref="C12" r:id="rId6"/>
-    <hyperlink ref="C14" r:id="rId7"/>
-    <hyperlink ref="C15" r:id="rId8"/>
-    <hyperlink ref="C16" r:id="rId9"/>
-    <hyperlink ref="C17" r:id="rId10"/>
-    <hyperlink ref="B18" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
@@ -2885,21 +2882,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.08203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="2" customWidth="1"/>
-    <col min="5" max="9" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.09765625" customWidth="1"/>
+    <col min="3" max="3" width="22.296875" style="2" customWidth="1"/>
+    <col min="5" max="9" width="10.69921875" customWidth="1"/>
     <col min="10" max="10" width="11" style="2"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.69921875" customWidth="1"/>
     <col min="13" max="13" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -2990,31 +2987,31 @@
       <c r="AE1" s="21"/>
       <c r="AF1" s="21"/>
       <c r="AG1" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="23" customFormat="1">
       <c r="A2" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>102</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>103</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>55</v>
       </c>
       <c r="G2" s="25" t="b">
         <v>1</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="27">
         <v>44439</v>
@@ -3026,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N2" s="25" t="b">
         <v>1</v>
@@ -3041,34 +3038,34 @@
         <v>0</v>
       </c>
       <c r="Q2" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="S2" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="S2" s="25" t="s">
-        <v>107</v>
-      </c>
       <c r="T2" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U2" s="25">
         <v>2017</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="Y2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="25" t="s">
-        <v>38</v>
-      </c>
       <c r="Z2" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="25">
         <v>2017</v>
@@ -3081,10 +3078,10 @@
     </row>
     <row r="3" spans="1:33" s="7" customFormat="1">
       <c r="A3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="9" t="e">
@@ -3112,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="9" t="b">
         <v>0</v>
@@ -3127,34 +3124,34 @@
         <v>0</v>
       </c>
       <c r="Q3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="T3" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U3" s="9">
         <v>2017</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Z3" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="AB3" s="9">
         <v>2017</v>
@@ -3167,82 +3164,82 @@
     </row>
     <row r="4" spans="1:33" s="7" customFormat="1">
       <c r="A4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="C4" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I4" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F4" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G4" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H4" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I4" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="U4" s="9">
         <v>2017</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="Z4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB4" s="9">
         <v>2017</v>
@@ -3255,10 +3252,10 @@
     </row>
     <row r="5" spans="1:33" s="7" customFormat="1">
       <c r="A5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="9" t="e">
@@ -3286,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="9" t="b">
         <v>0</v>
@@ -3307,28 +3304,28 @@
         <v>#N/A</v>
       </c>
       <c r="S5" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="T5" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="U5" s="9">
         <v>2017</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="Z5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB5" s="9">
         <v>2017</v>
@@ -3341,14 +3338,14 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>128</v>
-      </c>
       <c r="D6" s="15" t="e">
         <v>#N/A</v>
       </c>
@@ -3374,10 +3371,10 @@
         <v>#N/A</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" s="15" t="e">
         <v>#N/A</v>
@@ -3407,16 +3404,16 @@
         <v>#N/A</v>
       </c>
       <c r="W6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="Y6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z6" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB6" s="15">
         <v>2017</v>
@@ -3426,10 +3423,10 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="15" t="e">
@@ -3457,10 +3454,10 @@
         <v>#N/A</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N7" s="15" t="e">
         <v>#N/A</v>
@@ -3490,16 +3487,16 @@
         <v>#N/A</v>
       </c>
       <c r="W7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="15" t="s">
+      <c r="Y7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y7" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z7" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB7" s="15">
         <v>2017</v>
@@ -3509,7 +3506,7 @@
     </row>
     <row r="8" spans="1:33" s="7" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="8" t="e">
         <v>#N/A</v>
@@ -3542,10 +3539,10 @@
         <v>#N/A</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8" s="9" t="e">
         <v>#N/A</v>
@@ -3575,16 +3572,16 @@
         <v>#N/A</v>
       </c>
       <c r="W8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="9" t="s">
+      <c r="Y8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y8" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="Z8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB8" s="9">
         <v>2017</v>
@@ -3594,7 +3591,7 @@
     </row>
     <row r="9" spans="1:33" s="7" customFormat="1">
       <c r="A9" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="8" t="e">
         <v>#N/A</v>
@@ -3627,10 +3624,10 @@
         <v>#N/A</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" s="9" t="e">
         <v>#N/A</v>
@@ -3660,16 +3657,16 @@
         <v>#N/A</v>
       </c>
       <c r="W9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="9" t="s">
+      <c r="Y9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="Z9" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB9" s="9">
         <v>2017</v>
@@ -3679,10 +3676,10 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>135</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="15" t="e">
@@ -3710,10 +3707,10 @@
         <v>#N/A</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="15" t="e">
         <v>#N/A</v>
@@ -3743,16 +3740,16 @@
         <v>#N/A</v>
       </c>
       <c r="W10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X10" s="15" t="s">
+      <c r="Y10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z10" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB10" s="15">
         <v>2017</v>
@@ -3762,43 +3759,43 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I11" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E11" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H11" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I11" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>138</v>
-      </c>
       <c r="M11" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" s="15" t="e">
         <v>#N/A</v>
@@ -3828,16 +3825,16 @@
         <v>#N/A</v>
       </c>
       <c r="W11" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y11" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z11" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB11" s="15">
         <v>2017</v>
@@ -3847,10 +3844,10 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="15" t="e">
@@ -3878,10 +3875,10 @@
         <v>#N/A</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N12" s="15" t="e">
         <v>#N/A</v>
@@ -3911,16 +3908,16 @@
         <v>#N/A</v>
       </c>
       <c r="W12" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y12" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z12" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB12" s="15">
         <v>2017</v>
@@ -3930,10 +3927,10 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>141</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>142</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="15" t="e">
@@ -3961,10 +3958,10 @@
         <v>#N/A</v>
       </c>
       <c r="L13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="N13" s="15" t="e">
         <v>#N/A</v>
@@ -3994,16 +3991,16 @@
         <v>#N/A</v>
       </c>
       <c r="W13" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z13" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB13" s="15">
         <v>2017</v>
@@ -4013,13 +4010,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
-    <hyperlink ref="C11" r:id="rId5"/>
-    <hyperlink ref="B12" r:id="rId6"/>
-    <hyperlink ref="B13" r:id="rId7"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
@@ -4027,33 +4024,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="59" style="31" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="31" customWidth="1"/>
-    <col min="3" max="4" width="11" style="31"/>
-    <col min="5" max="9" width="11" style="31" customWidth="1"/>
-    <col min="10" max="10" width="11" style="31"/>
-    <col min="11" max="11" width="11" style="31" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13" style="31" customWidth="1"/>
+    <col min="1" max="1" width="59" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" customWidth="1"/>
+    <col min="5" max="9" width="11" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13.296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="11" style="2"/>
-    <col min="15" max="15" width="11" style="31"/>
     <col min="16" max="16" width="11" style="2"/>
-    <col min="17" max="17" width="11" style="31"/>
-    <col min="18" max="18" width="11" style="32"/>
+    <col min="18" max="18" width="11" style="31"/>
     <col min="19" max="19" width="11" style="1"/>
-    <col min="20" max="20" width="11" style="31"/>
-    <col min="21" max="21" width="11" style="32"/>
+    <col min="21" max="21" width="11" style="31"/>
     <col min="22" max="22" width="11" style="2"/>
-    <col min="23" max="16384" width="11" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="19" customFormat="1">
@@ -4064,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>3</v>
@@ -4108,7 +4099,7 @@
       <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="32" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="20" t="s">
@@ -4117,7 +4108,7 @@
       <c r="T1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="32" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -4146,14 +4137,14 @@
     </row>
     <row r="2" spans="1:33" s="23" customFormat="1">
       <c r="A2" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>144</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>145</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="25" t="e">
         <v>#N/A</v>
@@ -4177,49 +4168,49 @@
         <v>0</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R2" s="33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S2" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R2" s="34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S2" s="24" t="s">
+      <c r="T2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="33">
+        <v>2018</v>
+      </c>
+      <c r="V2" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="T2" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="34">
-        <v>2018</v>
-      </c>
-      <c r="V2" s="26" t="s">
+      <c r="W2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="25" t="s">
         <v>148</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="25" t="s">
-        <v>149</v>
       </c>
       <c r="AB2" s="25">
         <v>2018</v>
@@ -4232,14 +4223,14 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E3" s="15" t="e">
         <v>#N/A</v>
@@ -4263,49 +4254,49 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="N3" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O3" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P3" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q3" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R3" s="34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S3" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T3" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U3" s="34">
+        <v>2018</v>
+      </c>
+      <c r="V3" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="N3" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O3" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P3" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q3" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R3" s="35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S3" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T3" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U3" s="35">
-        <v>2018</v>
-      </c>
-      <c r="V3" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>154</v>
-      </c>
       <c r="X3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z3" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB3" s="15">
         <v>2018</v>
@@ -4317,13 +4308,13 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="B4" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="D4" s="15" t="e">
         <v>#N/A</v>
@@ -4350,10 +4341,10 @@
         <v>#N/A</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N4" s="14" t="e">
         <v>#N/A</v>
@@ -4367,7 +4358,7 @@
       <c r="Q4" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R4" s="35" t="e">
+      <c r="R4" s="34" t="e">
         <v>#N/A</v>
       </c>
       <c r="S4" s="12" t="e">
@@ -4376,23 +4367,23 @@
       <c r="T4" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="U4" s="35">
+      <c r="U4" s="34">
         <v>2018</v>
       </c>
       <c r="V4" s="14" t="e">
         <v>#N/A</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z4" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB4" s="15">
         <v>2018</v>
@@ -4404,14 +4395,14 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="D5" s="15" t="e">
         <v>#N/A</v>
       </c>
@@ -4437,10 +4428,10 @@
         <v>#N/A</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="14" t="e">
         <v>#N/A</v>
@@ -4454,7 +4445,7 @@
       <c r="Q5" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R5" s="35" t="e">
+      <c r="R5" s="34" t="e">
         <v>#N/A</v>
       </c>
       <c r="S5" s="12" t="e">
@@ -4463,29 +4454,29 @@
       <c r="T5" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5" s="34">
         <v>2018</v>
       </c>
       <c r="V5" s="14" t="e">
         <v>#N/A</v>
       </c>
       <c r="W5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="Y5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Z5" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="Z5" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="AB5" s="15">
         <v>2018</v>
       </c>
       <c r="AC5" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AD5" s="15"/>
       <c r="AF5" s="15"/>
@@ -4493,12 +4484,12 @@
     </row>
     <row r="6" spans="1:33" s="7" customFormat="1">
       <c r="A6" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="9" t="e">
         <v>#N/A</v>
       </c>
@@ -4524,68 +4515,68 @@
         <v>#N/A</v>
       </c>
       <c r="L6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="N6" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O6" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P6" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q6" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R6" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S6" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T6" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U6" s="36">
+        <v>2018</v>
+      </c>
+      <c r="V6" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O6" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P6" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q6" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R6" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S6" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T6" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U6" s="37">
-        <v>2018</v>
-      </c>
-      <c r="V6" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="X6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="Z6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB6" s="9">
         <v>2018</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD6" s="9"/>
-      <c r="AF6" s="36"/>
+      <c r="AF6" s="35"/>
       <c r="AG6" s="9"/>
     </row>
     <row r="7" spans="1:33" s="7" customFormat="1">
       <c r="A7" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="9" t="e">
         <v>#N/A</v>
       </c>
@@ -4611,10 +4602,10 @@
         <v>#N/A</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N7" s="10" t="e">
         <v>#N/A</v>
@@ -4628,7 +4619,7 @@
       <c r="Q7" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R7" s="37" t="e">
+      <c r="R7" s="36" t="e">
         <v>#N/A</v>
       </c>
       <c r="S7" s="8" t="e">
@@ -4637,44 +4628,44 @@
       <c r="T7" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="U7" s="37">
+      <c r="U7" s="36">
         <v>2018</v>
       </c>
       <c r="V7" s="10" t="e">
         <v>#N/A</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y7" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="Z7" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB7" s="9">
         <v>2018</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD7" s="9"/>
-      <c r="AF7" s="36"/>
+      <c r="AF7" s="35"/>
       <c r="AG7" s="9"/>
     </row>
     <row r="8" spans="1:33" s="7" customFormat="1">
       <c r="A8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="D8" s="9" t="e">
         <v>#N/A</v>
       </c>
@@ -4700,7 +4691,7 @@
         <v>#N/A</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M8" s="9" t="e">
         <v>#N/A</v>
@@ -4717,7 +4708,7 @@
       <c r="Q8" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R8" s="37" t="e">
+      <c r="R8" s="36" t="e">
         <v>#N/A</v>
       </c>
       <c r="S8" s="8" t="e">
@@ -4726,23 +4717,23 @@
       <c r="T8" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="U8" s="37">
+      <c r="U8" s="36">
         <v>2018</v>
       </c>
       <c r="V8" s="10" t="e">
         <v>#N/A</v>
       </c>
       <c r="W8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="9" t="s">
+      <c r="Y8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y8" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="Z8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB8" s="9">
         <v>2018</v>
@@ -4753,13 +4744,13 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="B9" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="D9" s="15" t="e">
         <v>#N/A</v>
@@ -4786,10 +4777,10 @@
         <v>#N/A</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N9" s="14" t="e">
         <v>#N/A</v>
@@ -4803,7 +4794,7 @@
       <c r="Q9" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R9" s="35" t="e">
+      <c r="R9" s="34" t="e">
         <v>#N/A</v>
       </c>
       <c r="S9" s="12" t="e">
@@ -4812,23 +4803,23 @@
       <c r="T9" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9" s="34">
         <v>2018</v>
       </c>
       <c r="V9" s="14" t="e">
         <v>#N/A</v>
       </c>
       <c r="W9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="15" t="s">
+      <c r="Y9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z9" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB9" s="15">
         <v>2018</v>
@@ -4838,14 +4829,14 @@
     </row>
     <row r="10" spans="1:33" s="7" customFormat="1">
       <c r="A10" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>171</v>
-      </c>
       <c r="D10" s="9" t="e">
         <v>#N/A</v>
       </c>
@@ -4871,10 +4862,10 @@
         <v>#N/A</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="10" t="e">
         <v>#N/A</v>
@@ -4888,7 +4879,7 @@
       <c r="Q10" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R10" s="37" t="e">
+      <c r="R10" s="36" t="e">
         <v>#N/A</v>
       </c>
       <c r="S10" s="8" t="e">
@@ -4897,23 +4888,23 @@
       <c r="T10" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="U10" s="37">
+      <c r="U10" s="36">
         <v>2018</v>
       </c>
       <c r="V10" s="10" t="e">
         <v>#N/A</v>
       </c>
       <c r="W10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X10" s="9" t="s">
+      <c r="Y10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="9" t="s">
+      <c r="Z10" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="Z10" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="AB10" s="9">
         <v>2018</v>
@@ -4924,10 +4915,10 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>172</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>173</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="15" t="e">
@@ -4955,10 +4946,10 @@
         <v>#N/A</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" s="14" t="e">
         <v>#N/A</v>
@@ -4972,7 +4963,7 @@
       <c r="Q11" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R11" s="35" t="e">
+      <c r="R11" s="34" t="e">
         <v>#N/A</v>
       </c>
       <c r="S11" s="12" t="e">
@@ -4981,23 +4972,23 @@
       <c r="T11" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="U11" s="35">
+      <c r="U11" s="34">
         <v>2018</v>
       </c>
       <c r="V11" s="14" t="e">
         <v>#N/A</v>
       </c>
       <c r="W11" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y11" s="15" t="s">
+      <c r="Z11" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="Z11" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="AB11" s="15">
         <v>2018</v>
@@ -5008,14 +4999,14 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>176</v>
-      </c>
       <c r="D12" s="15" t="e">
         <v>#N/A</v>
       </c>
@@ -5041,10 +5032,10 @@
         <v>#N/A</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" s="14" t="e">
         <v>#N/A</v>
@@ -5058,7 +5049,7 @@
       <c r="Q12" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R12" s="35" t="e">
+      <c r="R12" s="34" t="e">
         <v>#N/A</v>
       </c>
       <c r="S12" s="12" t="e">
@@ -5067,23 +5058,23 @@
       <c r="T12" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="U12" s="35">
+      <c r="U12" s="34">
         <v>2018</v>
       </c>
       <c r="V12" s="14" t="e">
         <v>#N/A</v>
       </c>
       <c r="W12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X12" s="15" t="s">
+      <c r="Y12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y12" s="15" t="s">
+      <c r="Z12" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="Z12" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="AB12" s="15">
         <v>2018</v>
@@ -5094,16 +5085,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-    <hyperlink ref="C10" r:id="rId7"/>
-    <hyperlink ref="B11" r:id="rId8"/>
-    <hyperlink ref="B12" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
@@ -5111,24 +5102,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="49.296875" customWidth="1"/>
     <col min="2" max="2" width="31" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11" style="31"/>
     <col min="4" max="4" width="11" style="2"/>
-    <col min="5" max="9" width="11" style="31" customWidth="1"/>
-    <col min="10" max="10" width="11" style="31"/>
-    <col min="11" max="11" width="11" style="31" customWidth="1"/>
+    <col min="5" max="9" width="11" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="11" style="2"/>
-    <col min="13" max="16384" width="11" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="19" customFormat="1">
@@ -5139,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>3</v>
@@ -5221,10 +5209,10 @@
     </row>
     <row r="2" spans="1:33" s="23" customFormat="1">
       <c r="A2" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>177</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>178</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="26" t="e">
@@ -5252,10 +5240,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" s="25" t="b">
         <v>0</v>
@@ -5273,28 +5261,28 @@
         <v>#N/A</v>
       </c>
       <c r="S2" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="T2" s="25" t="s">
         <v>179</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>180</v>
       </c>
       <c r="U2" s="25">
         <v>2019</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="Y2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="25" t="s">
-        <v>38</v>
-      </c>
       <c r="Z2" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="25">
         <v>2019</v>
@@ -5305,17 +5293,17 @@
     </row>
     <row r="3" spans="1:33" s="7" customFormat="1">
       <c r="A3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>19</v>
@@ -5336,10 +5324,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N3" s="9" t="b">
         <v>0</v>
@@ -5351,34 +5339,34 @@
         <v>1</v>
       </c>
       <c r="Q3" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="U3" s="9">
         <v>2019</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="Z3" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB3" s="9">
         <v>2019</v>
@@ -5389,13 +5377,13 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>188</v>
-      </c>
-      <c r="B4" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>189</v>
       </c>
       <c r="D4" s="14" t="e">
         <v>#N/A</v>
@@ -5422,10 +5410,10 @@
         <v>#N/A</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4" s="15" t="e">
         <v>#N/A</v>
@@ -5455,16 +5443,16 @@
         <v>#N/A</v>
       </c>
       <c r="W4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="Y4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z4" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB4" s="15">
         <v>2019</v>
@@ -5474,13 +5462,13 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>192</v>
-      </c>
       <c r="D5" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="15" t="e">
         <v>#N/A</v>
@@ -5504,10 +5492,10 @@
         <v>#N/A</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N5" s="15" t="e">
         <v>#N/A</v>
@@ -5537,34 +5525,34 @@
         <v>#N/A</v>
       </c>
       <c r="W5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="Y5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z5" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB5" s="15">
         <v>2019</v>
       </c>
       <c r="AC5" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>194</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>195</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="15" t="e">
         <v>#N/A</v>
@@ -5588,10 +5576,10 @@
         <v>#N/A</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N6" s="15" t="e">
         <v>#N/A</v>
@@ -5621,16 +5609,16 @@
         <v>#N/A</v>
       </c>
       <c r="W6" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="15" t="s">
+      <c r="Z6" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="Z6" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="AB6" s="15">
         <v>2019</v>
@@ -5639,13 +5627,13 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="B7" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="D7" s="14" t="e">
         <v>#N/A</v>
@@ -5672,10 +5660,10 @@
         <v>#N/A</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N7" s="15" t="e">
         <v>#N/A</v>
@@ -5705,33 +5693,33 @@
         <v>#N/A</v>
       </c>
       <c r="W7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="15" t="s">
+      <c r="Y7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y7" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z7" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB7" s="15">
         <v>2019</v>
       </c>
       <c r="AC7" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" s="14" t="e">
         <v>#N/A</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="14" t="e">
         <v>#N/A</v>
@@ -5758,10 +5746,10 @@
         <v>#N/A</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8" s="15" t="e">
         <v>#N/A</v>
@@ -5791,34 +5779,34 @@
         <v>#N/A</v>
       </c>
       <c r="W8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="15" t="s">
+      <c r="Y8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y8" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z8" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB8" s="15">
         <v>2019</v>
       </c>
       <c r="AC8" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>201</v>
-      </c>
       <c r="D9" s="14" t="e">
         <v>#N/A</v>
       </c>
@@ -5843,11 +5831,11 @@
       <c r="K9" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L9" s="38" t="s">
-        <v>44</v>
+      <c r="L9" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" s="15" t="e">
         <v>#N/A</v>
@@ -5877,16 +5865,16 @@
         <v>#N/A</v>
       </c>
       <c r="W9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="15" t="s">
+      <c r="Y9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z9" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB9" s="15">
         <v>2019</v>
@@ -5895,14 +5883,14 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C10" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>203</v>
-      </c>
       <c r="D10" s="14" t="e">
         <v>#N/A</v>
       </c>
@@ -5928,10 +5916,10 @@
         <v>#N/A</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="15" t="e">
         <v>#N/A</v>
@@ -5961,16 +5949,16 @@
         <v>#N/A</v>
       </c>
       <c r="W10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X10" s="15" t="s">
+      <c r="Y10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z10" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB10" s="15">
         <v>2019</v>
@@ -5978,13 +5966,13 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>205</v>
-      </c>
       <c r="D11" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="15" t="e">
         <v>#N/A</v>
@@ -6008,10 +5996,10 @@
         <v>#N/A</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N11" s="15" t="e">
         <v>#N/A</v>
@@ -6041,16 +6029,16 @@
         <v>#N/A</v>
       </c>
       <c r="W11" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y11" s="15" t="s">
+      <c r="Z11" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="Z11" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="AB11" s="15">
         <v>2019</v>
@@ -6059,12 +6047,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="B11" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
@@ -6072,21 +6060,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="49.5" style="31" customWidth="1"/>
-    <col min="2" max="4" width="11" style="31"/>
-    <col min="5" max="9" width="11" style="31" customWidth="1"/>
-    <col min="10" max="10" width="11" style="31"/>
-    <col min="11" max="11" width="11" style="31" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="31"/>
+    <col min="1" max="1" width="49.5" customWidth="1"/>
+    <col min="5" max="9" width="11" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="19" customFormat="1">
@@ -6097,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>3</v>
@@ -6176,15 +6161,15 @@
       <c r="AE1" s="21"/>
       <c r="AF1" s="21"/>
       <c r="AG1" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="23" customFormat="1">
       <c r="A2" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>206</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>207</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25" t="e">
@@ -6212,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" s="25" t="b">
         <v>0</v>
@@ -6227,34 +6212,34 @@
         <v>0</v>
       </c>
       <c r="Q2" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="R2" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="S2" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="S2" s="25" t="s">
-        <v>210</v>
-      </c>
       <c r="T2" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U2" s="25">
         <v>2020</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="Y2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="25" t="s">
-        <v>38</v>
-      </c>
       <c r="Z2" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB2" s="25">
         <v>2021</v>
@@ -6267,10 +6252,10 @@
     </row>
     <row r="3" spans="1:33" s="7" customFormat="1">
       <c r="A3" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>213</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="e">
@@ -6298,10 +6283,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="9" t="b">
         <v>0</v>
@@ -6319,28 +6304,28 @@
         <v>#N/A</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U3" s="9">
         <v>2020</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="Z3" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB3" s="9">
         <v>2020</v>
@@ -6353,10 +6338,10 @@
     </row>
     <row r="4" spans="1:33" s="7" customFormat="1">
       <c r="A4" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>216</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>217</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="e">
@@ -6384,10 +6369,10 @@
         <v>#N/A</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N4" s="9" t="e">
         <v>#N/A</v>
@@ -6417,16 +6402,16 @@
         <v>#N/A</v>
       </c>
       <c r="W4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="Z4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB4" s="9">
         <v>2020</v>
@@ -6439,14 +6424,14 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B5" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>219</v>
-      </c>
       <c r="D5" s="15" t="e">
         <v>#N/A</v>
       </c>
@@ -6472,10 +6457,10 @@
         <v>#N/A</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" s="15" t="e">
         <v>#N/A</v>
@@ -6505,22 +6490,22 @@
         <v>#N/A</v>
       </c>
       <c r="W5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="Y5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z5" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB5" s="15">
         <v>2020</v>
       </c>
       <c r="AC5" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AE5" s="15"/>
       <c r="AF5" s="15"/>
@@ -6528,14 +6513,14 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>222</v>
-      </c>
       <c r="D6" s="15" t="e">
         <v>#N/A</v>
       </c>
@@ -6561,10 +6546,10 @@
         <v>#N/A</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" s="15" t="e">
         <v>#N/A</v>
@@ -6594,25 +6579,25 @@
         <v>#N/A</v>
       </c>
       <c r="W6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="Y6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="Z6" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB6" s="15">
         <v>2020</v>
       </c>
       <c r="AC6" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AE6" s="15"/>
       <c r="AF6" s="15"/>
@@ -6620,9 +6605,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
@@ -6630,1253 +6615,1253 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="11" style="42"/>
-    <col min="4" max="4" width="11" style="40"/>
-    <col min="5" max="8" width="11" style="40" customWidth="1"/>
-    <col min="9" max="9" width="11" style="57" customWidth="1"/>
-    <col min="10" max="10" width="11" style="42"/>
-    <col min="11" max="11" width="11" style="40" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="40" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="40"/>
+    <col min="1" max="1" width="44.296875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="11" style="41"/>
+    <col min="4" max="4" width="11" style="39"/>
+    <col min="5" max="8" width="11" style="39" customWidth="1"/>
+    <col min="9" max="9" width="11" style="56" customWidth="1"/>
+    <col min="10" max="10" width="11" style="41"/>
+    <col min="11" max="11" width="11" style="39" customWidth="1"/>
+    <col min="12" max="12" width="15.19921875" style="39" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="43" customFormat="1">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:32" s="42" customFormat="1">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="45" customFormat="1">
+      <c r="A2" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="43" t="s">
+      <c r="B2" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2" s="54">
+        <v>44295</v>
+      </c>
+      <c r="J2" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R2" s="45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="T2" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="45">
+        <v>2021</v>
+      </c>
+      <c r="V2" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="W2" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="45">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="48" customFormat="1">
+      <c r="A3" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="46" customFormat="1">
-      <c r="A2" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="46" t="b">
+      <c r="G3" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I2" s="55">
-        <v>44295</v>
-      </c>
-      <c r="J2" s="48" t="b">
+      <c r="H3" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I3" s="55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J3" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R2" s="46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S2" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="T2" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="46">
+      <c r="K3" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R3" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S3" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="T3" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="U3" s="48">
         <v>2021</v>
       </c>
-      <c r="V2" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="W2" s="46" t="s">
+      <c r="V3" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="W3" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="46" t="s">
+      <c r="Y3" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="46" t="s">
+      <c r="Z3" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="46">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" s="49" customFormat="1">
-      <c r="A3" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3" s="56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J3" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R3" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S3" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="T3" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="U3" s="49">
-        <v>2021</v>
-      </c>
-      <c r="V3" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="W3" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="X3" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y3" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA3" s="49">
+      <c r="AA3" s="48">
         <v>2021</v>
       </c>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="D4" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I4" s="56">
+        <v>44526</v>
+      </c>
+      <c r="J4" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="40" t="s">
+      <c r="R4" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="S4" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="U4" s="39">
+        <v>2021</v>
+      </c>
+      <c r="V4" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="W4" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="X4" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="39">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="15.6">
+      <c r="A5" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H5" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I5" s="56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="M5" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O5" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P5" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q5" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R5" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S5" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T5" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U5" s="39">
+        <v>2021</v>
+      </c>
+      <c r="V5" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W5" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="39">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="15.6">
+      <c r="A6" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="40" t="b">
+      <c r="G6" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" s="56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I4" s="57">
-        <v>44526</v>
-      </c>
-      <c r="J4" s="42" t="b">
+      <c r="K6" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O6" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P6" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q6" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R6" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S6" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T6" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U6" s="39">
+        <v>2021</v>
+      </c>
+      <c r="V6" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W6" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z6" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6" s="39">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="15.6">
+      <c r="A7" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J7" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="N4" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="R4" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="T4" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="U4" s="40">
+      <c r="K7" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O7" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P7" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q7" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R7" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S7" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T7" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U7" s="39">
         <v>2021</v>
       </c>
-      <c r="V4" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="W4" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="X4" s="40" t="s">
+      <c r="V7" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W7" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="X7" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="40" t="s">
+      <c r="Z7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA4" s="40">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="15.5">
-      <c r="A5" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G5" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H5" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I5" s="57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J5" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O5" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P5" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q5" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R5" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S5" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T5" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U5" s="40">
-        <v>2021</v>
-      </c>
-      <c r="V5" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W5" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="X5" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y5" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA5" s="40">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="15.5">
-      <c r="A6" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H6" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I6" s="57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O6" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P6" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q6" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R6" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S6" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T6" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U6" s="40">
-        <v>2021</v>
-      </c>
-      <c r="V6" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W6" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="X6" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y6" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z6" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA6" s="40">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="15.5">
-      <c r="A7" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>248</v>
-      </c>
-      <c r="D7" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E7" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F7" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G7" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H7" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I7" s="57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J7" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O7" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P7" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q7" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R7" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S7" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T7" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U7" s="40">
-        <v>2021</v>
-      </c>
-      <c r="V7" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W7" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="X7" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y7" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z7" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA7" s="40">
+      <c r="AA7" s="39">
         <v>2021</v>
       </c>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F8" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G8" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H8" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I8" s="57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J8" s="42" t="b">
+      <c r="D8" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J8" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="N8" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O8" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P8" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q8" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R8" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S8" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T8" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U8" s="40">
+      <c r="K8" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="N8" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O8" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P8" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q8" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R8" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S8" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T8" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U8" s="39">
         <v>2021</v>
       </c>
-      <c r="V8" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W8" s="40" t="s">
+      <c r="V8" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W8" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="40" t="s">
+      <c r="Y8" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Y8" s="40" t="s">
+      <c r="Z8" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="Z8" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA8" s="40">
+      <c r="AA8" s="39">
         <v>2021</v>
       </c>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F9" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G9" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H9" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I9" s="57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J9" s="42" t="b">
+      <c r="B9" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G9" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H9" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I9" s="56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J9" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="K9" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="N9" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O9" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P9" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q9" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R9" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S9" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T9" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U9" s="40">
+      <c r="K9" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="N9" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O9" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P9" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q9" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R9" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S9" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T9" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U9" s="39">
         <v>2021</v>
       </c>
-      <c r="V9" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W9" s="40" t="s">
+      <c r="V9" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W9" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="40" t="s">
+      <c r="Y9" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="40" t="s">
+      <c r="Z9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="Z9" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA9" s="40">
+      <c r="AA9" s="39">
         <v>2021</v>
       </c>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F10" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G10" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I10" s="57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J10" s="42" t="b">
+      <c r="A10" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G10" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H10" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I10" s="56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J10" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="K10" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="N10" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O10" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P10" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q10" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R10" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S10" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T10" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U10" s="40">
+      <c r="K10" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="N10" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O10" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P10" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q10" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R10" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S10" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T10" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U10" s="39">
         <v>2021</v>
       </c>
-      <c r="V10" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W10" s="40" t="s">
+      <c r="V10" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W10" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="X10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="X10" s="40" t="s">
+      <c r="Y10" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="40" t="s">
+      <c r="Z10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="Z10" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA10" s="40">
+      <c r="AA10" s="39">
         <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H11" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I11" s="57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J11" s="42" t="b">
+      <c r="A11" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I11" s="56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J11" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="K11" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="N11" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O11" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P11" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q11" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R11" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S11" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T11" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U11" s="40">
+      <c r="K11" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O11" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P11" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q11" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R11" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S11" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T11" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U11" s="39">
         <v>2021</v>
       </c>
-      <c r="V11" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W11" s="40" t="s">
+      <c r="V11" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W11" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="X11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="X11" s="40" t="s">
+      <c r="Y11" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Y11" s="40" t="s">
+      <c r="Z11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="Z11" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA11" s="40">
+      <c r="AA11" s="39">
         <v>2021</v>
       </c>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I12" s="57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J12" s="42" t="b">
+      <c r="A12" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G12" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H12" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I12" s="56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J12" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="K12" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="N12" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O12" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P12" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q12" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R12" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S12" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T12" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U12" s="40">
+      <c r="K12" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="N12" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O12" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P12" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q12" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R12" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S12" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T12" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U12" s="39">
         <v>2021</v>
       </c>
-      <c r="V12" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W12" s="40" t="s">
+      <c r="V12" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W12" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="X12" s="40" t="s">
+      <c r="Y12" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Y12" s="40" t="s">
+      <c r="Z12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="Z12" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA12" s="40">
+      <c r="AA12" s="39">
         <v>2021</v>
       </c>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F13" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I13" s="57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J13" s="42" t="b">
+      <c r="A13" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H13" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I13" s="56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J13" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="K13" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L13" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="N13" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O13" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P13" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q13" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R13" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S13" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T13" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U13" s="40">
+      <c r="K13" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="N13" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O13" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P13" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q13" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R13" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S13" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T13" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U13" s="39">
         <v>2021</v>
       </c>
-      <c r="V13" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W13" s="40" t="s">
+      <c r="V13" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W13" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="X13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="X13" s="40" t="s">
+      <c r="Y13" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="40" t="s">
+      <c r="Z13" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="Z13" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA13" s="40">
+      <c r="AA13" s="39">
         <v>2021</v>
       </c>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C14" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C14" s="42" t="s">
+      <c r="D14" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I14" s="56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J14" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O14" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P14" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q14" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R14" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S14" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T14" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U14" s="39">
+        <v>2021</v>
+      </c>
+      <c r="V14" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W14" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y14" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z14" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA14" s="39">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="48" customFormat="1">
+      <c r="A15" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="D14" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F14" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H14" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I14" s="57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J14" s="42" t="b">
+      <c r="B15" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F15" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G15" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H15" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I15" s="55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J15" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="K14" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O14" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P14" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q14" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R14" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S14" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T14" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U14" s="40">
+      <c r="K15" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="N15" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O15" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P15" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q15" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R15" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S15" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T15" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U15" s="48">
         <v>2021</v>
       </c>
-      <c r="V14" s="40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W14" s="40" t="s">
+      <c r="V15" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W15" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="X14" s="40" t="s">
+      <c r="Y15" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="Y14" s="40" t="s">
+      <c r="Z15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z14" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA14" s="40">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" s="49" customFormat="1">
-      <c r="A15" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F15" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G15" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H15" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I15" s="56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J15" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L15" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="M15" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="N15" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O15" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P15" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q15" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R15" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S15" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T15" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U15" s="49">
-        <v>2021</v>
-      </c>
-      <c r="V15" s="49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W15" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="X15" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y15" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z15" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA15" s="49">
+      <c r="AA15" s="48">
         <v>2021</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>

--- a/dashboard/data/we2_alt_publ3.xlsx
+++ b/dashboard/data/we2_alt_publ3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaatn\Documents\R\BIH Projects\geoscience-dashboard-ana-copy\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532847B5-1304-4754-84B0-078A1FF4D016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBEA1D7-E8C9-433A-827E-6189E68C599B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -995,7 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1091,6 +1091,10 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1321,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1331,8 +1335,9 @@
     <col min="2" max="2" width="30.19921875" customWidth="1"/>
     <col min="3" max="3" width="11" style="2"/>
     <col min="4" max="4" width="11" style="1"/>
-    <col min="5" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="8" width="11.19921875" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" style="59" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" customWidth="1"/>
     <col min="12" max="12" width="11" style="2"/>
     <col min="13" max="13" width="11" style="1"/>
     <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
@@ -1363,7 +1368,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1447,7 +1452,7 @@
       <c r="H2" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I2" s="9" t="e">
+      <c r="I2" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="J2" s="9" t="b">
@@ -1615,7 +1620,7 @@
       <c r="H4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="9" t="e">
+      <c r="I4" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="J4" s="9" t="b">
@@ -1699,7 +1704,7 @@
       <c r="H5" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I5" s="9" t="e">
+      <c r="I5" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="J5" s="9" t="b">
@@ -1783,7 +1788,7 @@
       <c r="H6" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I6" s="9" t="e">
+      <c r="I6" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="J6" s="9" t="b">
@@ -1867,7 +1872,7 @@
       <c r="H7" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I7" s="15" t="e">
+      <c r="I7" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J7" s="15" t="b">
@@ -1952,7 +1957,7 @@
       <c r="H8" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I8" s="15" t="e">
+      <c r="I8" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J8" s="15" t="b">
@@ -2037,7 +2042,7 @@
       <c r="H9" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I9" s="15" t="e">
+      <c r="I9" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J9" s="15" t="b">
@@ -2122,7 +2127,7 @@
       <c r="H10" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I10" s="15" t="e">
+      <c r="I10" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J10" s="15" t="b">
@@ -2207,7 +2212,7 @@
       <c r="H11" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I11" s="15" t="e">
+      <c r="I11" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J11" s="15" t="b">
@@ -2292,7 +2297,7 @@
       <c r="H12" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I12" s="15" t="e">
+      <c r="I12" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J12" s="15" t="b">
@@ -2375,7 +2380,7 @@
       <c r="H13" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I13" s="15" t="e">
+      <c r="I13" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J13" s="15" t="b">
@@ -2460,7 +2465,7 @@
       <c r="H14" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I14" s="15" t="e">
+      <c r="I14" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J14" s="15" t="b">
@@ -2545,7 +2550,7 @@
       <c r="H15" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I15" s="15" t="e">
+      <c r="I15" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J15" s="15" t="b">
@@ -2630,7 +2635,7 @@
       <c r="H16" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I16" s="15" t="e">
+      <c r="I16" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J16" s="15" t="b">
@@ -2717,7 +2722,7 @@
       <c r="H17" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I17" s="15" t="e">
+      <c r="I17" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J17" s="15" t="b">
@@ -2802,7 +2807,7 @@
       <c r="H18" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I18" s="15" t="e">
+      <c r="I18" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J18" s="15" t="b">
@@ -2885,8 +2890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -2894,7 +2899,8 @@
     <col min="1" max="1" width="58" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.09765625" customWidth="1"/>
     <col min="3" max="3" width="22.296875" style="2" customWidth="1"/>
-    <col min="5" max="9" width="10.69921875" customWidth="1"/>
+    <col min="5" max="8" width="10.69921875" customWidth="1"/>
+    <col min="9" max="9" width="10.69921875" style="59" customWidth="1"/>
     <col min="10" max="10" width="11" style="2"/>
     <col min="11" max="11" width="10.69921875" customWidth="1"/>
     <col min="13" max="13" width="11" style="2"/>
@@ -2925,7 +2931,7 @@
       <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="60" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="22" t="s">
@@ -3099,7 +3105,7 @@
       <c r="H3" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I3" s="9" t="e">
+      <c r="I3" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="J3" s="10" t="b">
@@ -3187,7 +3193,7 @@
       <c r="H4" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I4" s="9" t="e">
+      <c r="I4" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="J4" s="10" t="b">
@@ -3273,7 +3279,7 @@
       <c r="H5" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I5" s="9" t="e">
+      <c r="I5" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="J5" s="10" t="b">
@@ -3361,7 +3367,7 @@
       <c r="H6" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I6" s="15" t="e">
+      <c r="I6" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J6" s="14" t="b">
@@ -3444,7 +3450,7 @@
       <c r="H7" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I7" s="15" t="e">
+      <c r="I7" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J7" s="14" t="b">
@@ -3529,7 +3535,7 @@
       <c r="H8" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I8" s="9" t="e">
+      <c r="I8" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="J8" s="10" t="b">
@@ -3614,7 +3620,7 @@
       <c r="H9" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I9" s="9" t="e">
+      <c r="I9" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="J9" s="10" t="b">
@@ -3697,7 +3703,7 @@
       <c r="H10" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I10" s="15" t="e">
+      <c r="I10" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J10" s="14" t="b">
@@ -3782,7 +3788,7 @@
       <c r="H11" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I11" s="15" t="e">
+      <c r="I11" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J11" s="14" t="b">
@@ -3865,7 +3871,7 @@
       <c r="H12" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I12" s="15" t="e">
+      <c r="I12" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J12" s="14" t="b">
@@ -3948,7 +3954,7 @@
       <c r="H13" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I13" s="15" t="e">
+      <c r="I13" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J13" s="14" t="b">
@@ -4028,14 +4034,15 @@
   <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="59" customWidth="1"/>
     <col min="2" max="2" width="19.19921875" customWidth="1"/>
-    <col min="5" max="9" width="11" customWidth="1"/>
+    <col min="5" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11" style="59" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="13.296875" style="2" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
@@ -4072,7 +4079,7 @@
       <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="60" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="21" t="s">
@@ -4158,7 +4165,7 @@
       <c r="H2" s="25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I2" s="25" t="e">
+      <c r="I2" s="27" t="e">
         <v>#N/A</v>
       </c>
       <c r="J2" s="25" t="b">
@@ -4244,7 +4251,7 @@
       <c r="H3" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I3" s="15" t="e">
+      <c r="I3" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J3" s="15" t="b">
@@ -4331,7 +4338,7 @@
       <c r="H4" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I4" s="15" t="e">
+      <c r="I4" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J4" s="15" t="b">
@@ -4418,7 +4425,7 @@
       <c r="H5" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I5" s="15" t="e">
+      <c r="I5" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J5" s="15" t="b">
@@ -4505,7 +4512,7 @@
       <c r="H6" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I6" s="9" t="e">
+      <c r="I6" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="J6" s="9" t="b">
@@ -4592,7 +4599,7 @@
       <c r="H7" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I7" s="9" t="e">
+      <c r="I7" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="J7" s="9" t="b">
@@ -4681,7 +4688,7 @@
       <c r="H8" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I8" s="9" t="e">
+      <c r="I8" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="J8" s="9" t="b">
@@ -4767,7 +4774,7 @@
       <c r="H9" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I9" s="15" t="e">
+      <c r="I9" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J9" s="15" t="b">
@@ -4852,7 +4859,7 @@
       <c r="H10" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I10" s="9" t="e">
+      <c r="I10" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="J10" s="9" t="b">
@@ -4936,7 +4943,7 @@
       <c r="H11" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I11" s="15" t="e">
+      <c r="I11" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J11" s="15" t="b">
@@ -5022,7 +5029,7 @@
       <c r="H12" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I12" s="15" t="e">
+      <c r="I12" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J12" s="15" t="b">
@@ -5106,7 +5113,7 @@
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -5114,7 +5121,8 @@
     <col min="1" max="1" width="49.296875" customWidth="1"/>
     <col min="2" max="2" width="31" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="2"/>
-    <col min="5" max="9" width="11" customWidth="1"/>
+    <col min="5" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11" style="59" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="11" style="2"/>
   </cols>
@@ -5144,7 +5152,7 @@
       <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="60" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="21" t="s">
@@ -5230,7 +5238,7 @@
       <c r="H2" s="25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I2" s="25" t="e">
+      <c r="I2" s="27" t="e">
         <v>#N/A</v>
       </c>
       <c r="J2" s="25" t="b">
@@ -5400,7 +5408,7 @@
       <c r="H4" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I4" s="15" t="e">
+      <c r="I4" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J4" s="15" t="b">
@@ -5482,7 +5490,7 @@
       <c r="H5" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I5" s="15" t="e">
+      <c r="I5" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J5" s="15" t="b">
@@ -5566,7 +5574,7 @@
       <c r="H6" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I6" s="15" t="e">
+      <c r="I6" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J6" s="15" t="b">
@@ -5650,7 +5658,7 @@
       <c r="H7" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I7" s="15" t="e">
+      <c r="I7" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J7" s="15" t="b">
@@ -5736,7 +5744,7 @@
       <c r="H8" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I8" s="15" t="e">
+      <c r="I8" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J8" s="15" t="b">
@@ -5822,7 +5830,7 @@
       <c r="H9" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I9" s="15" t="e">
+      <c r="I9" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J9" s="15" t="b">
@@ -5906,7 +5914,7 @@
       <c r="H10" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I10" s="15" t="e">
+      <c r="I10" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J10" s="15" t="b">
@@ -5986,7 +5994,7 @@
       <c r="H11" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I11" s="15" t="e">
+      <c r="I11" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J11" s="15" t="b">
@@ -6064,13 +6072,14 @@
   <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="49.5" customWidth="1"/>
-    <col min="5" max="9" width="11" customWidth="1"/>
+    <col min="5" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11" style="59" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6099,7 +6108,7 @@
       <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="60" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="21" t="s">
@@ -6187,7 +6196,7 @@
       <c r="H2" s="25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I2" s="25" t="e">
+      <c r="I2" s="27" t="e">
         <v>#N/A</v>
       </c>
       <c r="J2" s="25" t="b">
@@ -6273,7 +6282,7 @@
       <c r="H3" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I3" s="9" t="e">
+      <c r="I3" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="J3" s="9" t="b">
@@ -6359,7 +6368,7 @@
       <c r="H4" s="9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I4" s="9" t="e">
+      <c r="I4" s="11" t="e">
         <v>#N/A</v>
       </c>
       <c r="J4" s="9" t="b">
@@ -6447,7 +6456,7 @@
       <c r="H5" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I5" s="15" t="e">
+      <c r="I5" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J5" s="15" t="b">
@@ -6536,7 +6545,7 @@
       <c r="H6" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I6" s="15" t="e">
+      <c r="I6" s="58" t="e">
         <v>#N/A</v>
       </c>
       <c r="J6" s="15" t="b">
@@ -6618,8 +6627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4"/>
